--- a/仕様書リスト.xlsx
+++ b/仕様書リスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escar\Desktop\HITODE仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escar\Desktop\GameDev\Document\HITODE_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815A66C-7BFF-4A2B-A7A4-01245896FCD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28B3E4-7940-42DB-826A-42AFF88EEC7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="810" windowWidth="16920" windowHeight="10990" xr2:uid="{BE47E7AD-7B39-4997-8D8D-389616B8DFDF}"/>
+    <workbookView xWindow="6840" yWindow="2310" windowWidth="16920" windowHeight="10990" xr2:uid="{BE47E7AD-7B39-4997-8D8D-389616B8DFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>仕様書リスト</t>
   </si>
@@ -290,6 +290,29 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1グラフィックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ2グラフィックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ3グラフィックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ4グラフィックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ全体グラフィックス</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,32 +474,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -805,410 +828,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68D1485-864E-417B-95C1-393204013E1E}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12.58203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="61.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="2" t="str">
         <f>HYPERLINK("仕様書/aaa.xlsx",F6)</f>
         <v>テンプレ</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>43529</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="2" t="str">
         <f>HYPERLINK("仕様書/HITODE(仮).pptx",F7)</f>
         <v>ゲーム概要</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>43529</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="str">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="str">
         <f>HYPERLINK("仕様書/GameScene.xlsx",F8)</f>
         <v>ゲームシーン構成</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>43529</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="str">
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="str">
         <f>HYPERLINK("仕様書/Title.xlsx",F9)</f>
         <v>タイトルシーン仕様</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="C10" s="2" t="str">
         <f>HYPERLINK("仕様書/Stage.xlsx",F10)</f>
         <v>ステージ全体仕様</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="7"/>
-      <c r="C11" s="4" t="str">
+      <c r="B11" s="9"/>
+      <c r="C11" s="2" t="str">
         <f>HYPERLINK("仕様書/Stage1.xlsx",F11)</f>
         <v>ステージ1仕様</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="str">
+      <c r="B12" s="9"/>
+      <c r="C12" s="2" t="str">
         <f>HYPERLINK("仕様書/Stage2.xlsx",F12)</f>
         <v>ステージ2仕様</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="2" t="str">
         <f>HYPERLINK("仕様書/Stage3.xlsx",F13)</f>
         <v>ステージ3仕様</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="7"/>
-      <c r="C14" s="4" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="2" t="str">
         <f>HYPERLINK("仕様書/Stage4.xlsx",F14)</f>
         <v>ステージ4仕様</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="7"/>
-      <c r="C15" s="4" t="str">
-        <f>HYPERLINK("仕様書/Result.xlsx",F15)</f>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="str">
+        <f>HYPERLINK("仕様書/Stagegraphics.xlsx",F15)</f>
+        <v>ステージ全体グラフィックス</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="9"/>
+      <c r="C16" s="2" t="str">
+        <f>HYPERLINK("仕様書/Stage1graphics.xlsx",F16)</f>
+        <v>ステージ1グラフィックス</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="str">
+        <f>HYPERLINK("仕様書/Stage2graphics.xlsx",F17)</f>
+        <v>ステージ2グラフィックス</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="9"/>
+      <c r="C18" s="2" t="str">
+        <f>HYPERLINK("仕様書/Stage3graphics.xlsx",F18)</f>
+        <v>ステージ3グラフィックス</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="9"/>
+      <c r="C19" s="2" t="str">
+        <f>HYPERLINK("仕様書/Stage4graphics.xlsx",F19)</f>
+        <v>ステージ4グラフィックス</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="9"/>
+      <c r="C20" s="2" t="str">
+        <f>HYPERLINK("仕様書/Result.xlsx",F20)</f>
         <v>リザルト仕様</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="8" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="str">
-        <f>HYPERLINK("仕様書/NormalGimmick.xlsx",F16)</f>
+      <c r="C21" s="2" t="str">
+        <f>HYPERLINK("仕様書/NormalGimmick.xlsx",F21)</f>
         <v>基本回転ギミック仕様</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="str">
-        <f>HYPERLINK("仕様書/SaveBar.xlsx",F17)</f>
-        <v>中間バー仕様</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="str">
-        <f>HYPERLINK("仕様書/GoalBar.xlsx",F18)</f>
-        <v>ゴールバー仕様</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="str">
-        <f>HYPERLINK("仕様書/SpecialGimmick.xlsx",F19)</f>
-        <v>特殊ギミック仕様</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="8"/>
-      <c r="C20" s="4" t="str">
-        <f>HYPERLINK("仕様書/Enemy.xlsx",F20)</f>
-        <v>エネミー仕様</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="8"/>
-      <c r="C21" s="4" t="str">
-        <f>HYPERLINK("仕様書/Player.xlsx",F21)</f>
-        <v>プレイヤー仕様</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8"/>
-      <c r="C22" s="4" t="str">
-        <f>HYPERLINK("仕様書/Item.xlsx",F22)</f>
+      <c r="C22" s="2" t="str">
+        <f>HYPERLINK("仕様書/SaveBar.xlsx",F22)</f>
+        <v>中間バー仕様</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="8"/>
+      <c r="C23" s="2" t="str">
+        <f>HYPERLINK("仕様書/GoalBar.xlsx",F23)</f>
+        <v>ゴールバー仕様</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="8"/>
+      <c r="C24" s="2" t="str">
+        <f>HYPERLINK("仕様書/SpecialGimmick.xlsx",F24)</f>
+        <v>特殊ギミック仕様</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="8"/>
+      <c r="C25" s="2" t="str">
+        <f>HYPERLINK("仕様書/Enemy.xlsx",F25)</f>
+        <v>エネミー仕様</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="8"/>
+      <c r="C26" s="2" t="str">
+        <f>HYPERLINK("仕様書/Player.xlsx",F26)</f>
+        <v>プレイヤー仕様</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="8"/>
+      <c r="C27" s="2" t="str">
+        <f>HYPERLINK("仕様書/Item.xlsx",F27)</f>
         <v>アイテム仕様</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="9" t="s">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="str">
-        <f>HYPERLINK("仕様書/StageUI.xlsx",F23)</f>
+      <c r="C28" s="2" t="str">
+        <f>HYPERLINK("仕様書/StageUI.xlsx",F28)</f>
         <v>ステージUI</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="10" t="s">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f>HYPERLINK("仕様書/Settings.xlsx",F24)</f>
+      <c r="C29" s="2" t="str">
+        <f>HYPERLINK("仕様書/Settings.xlsx",F29)</f>
         <v>Unity基本設定</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="11" t="s">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <f>HYPERLINK("仕様書/BGM.xlsx",F25)</f>
+      <c r="C30" s="2" t="str">
+        <f>HYPERLINK("仕様書/BGM.xlsx",F30)</f>
         <v>bgmリンク</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="12"/>
-      <c r="C26" s="4" t="str">
-        <f>HYPERLINK("仕様書/SE.xlsx",F26)</f>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="12"/>
+      <c r="C31" s="2" t="str">
+        <f>HYPERLINK("仕様書/SE.xlsx",F31)</f>
         <v>seリンク</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="12"/>
-      <c r="C27" s="4" t="str">
-        <f>HYPERLINK("仕様書/FreeResources.xlsx",F27)</f>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="12"/>
+      <c r="C32" s="2" t="str">
+        <f>HYPERLINK("仕様書/FreeResources.xlsx",F32)</f>
         <v>使用フリー素材リンク</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="13"/>
-      <c r="C28" s="4" t="str">
-        <f>HYPERLINK("仕様書/Word.xlsx",F28)</f>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="13"/>
+      <c r="C33" s="2" t="str">
+        <f>HYPERLINK("仕様書/Word.xlsx",F33)</f>
         <v>用語集</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J3"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B10:B20"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
